--- a/送审/21150233076甄勇.xlsx
+++ b/送审/21150233076甄勇.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Dissertation\送审\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11640"/>
   </bookViews>
@@ -138,10 +143,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>基于渔船轨迹数据的海洋捕捞规律挖掘研究与实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -150,14 +151,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>数据分析</t>
+    <t>基于渔业船舶轨迹数据的海洋捕捞规律挖掘研究与实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹数据分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -314,6 +319,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -361,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,9 +402,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +454,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -967,10 +1009,10 @@
         <v>30</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>36</v>
@@ -979,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>11</v>
